--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L145"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6849,6 +6849,38 @@
         <v>45947</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>テスト酒</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" s="2" t="n">
+        <v>45960.44648740741</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>テストくん</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>25</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
